--- a/Primer-Parcial/Practica-1/Practica 1.xlsx
+++ b/Primer-Parcial/Practica-1/Practica 1.xlsx
@@ -5,24 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Res\Escuela\Algoritmos\Repo\Primer-Parcial\Practica-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoipn-my.sharepoint.com/personal/isanchezv1603_alumno_ipn_mx/Documents/ESCOM/SEMESTRE 2023-1/ALGORITMOS/ADO/Primer-Parcial/Practica-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A92EBA-12C3-429B-AA8C-90AAF2144179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{B2A92EBA-12C3-429B-AA8C-90AAF2144179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EEE69C9-3668-43FE-A621-47386584D798}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27720" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio 1" sheetId="1" r:id="rId1"/>
     <sheet name="Ejercicio 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Ejercicio 2'!$A$2:$A$151</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Ejercicio 2'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Ejercicio 2'!$B$2:$B$151</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Ejercicio 2'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Ejercicio 2'!$C$2:$C$151</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -530,48 +523,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,7 +582,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -651,7 +644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2674,7 +2667,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="986037376"/>
@@ -2736,7 +2729,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="986036544"/>
@@ -2778,7 +2771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2815,7 +2808,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2829,7 +2822,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2840,6 +2833,65 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Complejidad</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> Algoritmo 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -9723,6 +9775,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9754,6 +9807,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> más alto</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9788,7 +9901,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="325129119"/>
@@ -9816,6 +9929,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Operaciones</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9850,7 +10018,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="327867487"/>
@@ -9865,6 +10033,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
     <c:extLst>
@@ -9898,7 +10097,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11067,15 +11266,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11119,7 +11318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11421,7 +11620,7 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="9" customWidth="1"/>
   </cols>
@@ -12823,10 +13022,10 @@
   <dimension ref="A1:C751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
